--- a/Electronic/EFIS_V2/EFIS_V2_BOM/EFIS_V2_BOM.xlsx
+++ b/Electronic/EFIS_V2/EFIS_V2_BOM/EFIS_V2_BOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PC_HP_EliteBook\DocumentsBF\kicad\Projets\EFIS_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Documents\GitHub\EFIS-AvionicsDuino-HSI\Electronic\EFIS_V2\EFIS_V2_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F59941-02C9-46DC-AAEB-6DB7799A4C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="EFIS_V2" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="EFIS_V2" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr sourceFile="D:\Dropbox\PC_HP_EliteBook\DocumentsBF\kicad\Projets\EFIS_V2\EFIS_V2.csv" decimal="," thousands=" " comma="1">
       <textFields count="7">
         <textField/>
@@ -95,9 +96,6 @@
     <t>Polarized capacitor, small symbol</t>
   </si>
   <si>
-    <t xml:space="preserve">C5, </t>
-  </si>
-  <si>
     <t>470 nF</t>
   </si>
   <si>
@@ -339,12 +337,15 @@
   </si>
   <si>
     <t>https://www.digikey.fr/en/products/detail/grayhill-inc/62SG22-M5-060C/6137663</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,12 +371,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -391,12 +398,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="EFIS_V2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="EFIS_V2" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,11 +690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,61 +731,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -788,416 +797,416 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>68</v>
+      <c r="F9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>78</v>
+      <c r="G18" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1"/>
-    <hyperlink ref="G13" r:id="rId2"/>
-    <hyperlink ref="G12" r:id="rId3"/>
-    <hyperlink ref="G11" r:id="rId4"/>
-    <hyperlink ref="G10" r:id="rId5"/>
-    <hyperlink ref="G9" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G7" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="G5" r:id="rId10"/>
-    <hyperlink ref="G4" r:id="rId11"/>
-    <hyperlink ref="G3" r:id="rId12"/>
-    <hyperlink ref="G2" r:id="rId13"/>
-    <hyperlink ref="G15" r:id="rId14"/>
-    <hyperlink ref="G16" r:id="rId15"/>
-    <hyperlink ref="G17" r:id="rId16"/>
-    <hyperlink ref="G19" r:id="rId17"/>
-    <hyperlink ref="G20" r:id="rId18"/>
-    <hyperlink ref="G18" r:id="rId19"/>
-    <hyperlink ref="G25" r:id="rId20"/>
-    <hyperlink ref="G24" r:id="rId21"/>
-    <hyperlink ref="G22" r:id="rId22"/>
-    <hyperlink ref="G23" r:id="rId23"/>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G2" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
